--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70331C5-0BD5-4B94-923B-1EEEECF05F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3481828-220C-477A-AA50-D2DC13B91D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3481828-220C-477A-AA50-D2DC13B91D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825990-EB22-4BF7-BB2C-DD2EE0E05821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825990-EB22-4BF7-BB2C-DD2EE0E05821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B0BCD-4CEF-4E02-BBAC-A5CC17DB71E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B0BCD-4CEF-4E02-BBAC-A5CC17DB71E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594E4FF-3466-4AF4-8457-28030C2A8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5594E4FF-3466-4AF4-8457-28030C2A8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F884BC-5F44-4D86-94A1-0DBB2DD356CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F884BC-5F44-4D86-94A1-0DBB2DD356CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91125E4C-B8F5-4608-A2AF-5D2BEEA284A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91125E4C-B8F5-4608-A2AF-5D2BEEA284A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8116B6-3F56-4EAD-BECF-2C8AE277F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8116B6-3F56-4EAD-BECF-2C8AE277F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E75F0E-CA4D-4532-A37D-4A5BABEEB8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91125E4C-B8F5-4608-A2AF-5D2BEEA284A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F343BA0-860F-4D76-A33D-162581BE903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F343BA0-860F-4D76-A33D-162581BE903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B3EB1-3618-4163-91FA-249740E18A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2044.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelsimoes/Projects/share-resource-planning-no_esso-degradation/data/HR1/Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B3EB1-3618-4163-91FA-249740E18A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A445F-9076-1844-B121-98DEC8EF4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="37400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,24 +2742,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2773,7 +2772,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>1.3468550065500522</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>1.4859473959783542</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>1.4859473959783542</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>1.4859473959783542</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2848,9 +2847,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>55.871622088786118</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>57.654758963960141</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>59.437895839134171</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3256,7 +3255,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3295,9 +3294,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>41.576808139474352</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>40.911846679774037</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>40.246885220073729</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3703,7 +3702,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3742,9 +3741,9 @@
       <selection activeCell="E2" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>57.497240229621724</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>56.177322323202681</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>58.817158136040781</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4150,7 +4149,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4190,9 +4189,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>76.122113201179118</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>74.374639063508582</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4585,9 +4584,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>21.15277323070503</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>15.60244765777272</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>27.130427555772791</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4993,7 +4992,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5019,7 +5018,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5058,9 +5057,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>71.147161319443612</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>66.867632819025943</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>81.727106778809485</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5466,7 +5465,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5505,9 +5504,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>44.206935030356036</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>45.692882426334393</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>47.17882982231275</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5913,7 +5912,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5952,9 +5951,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>51.369049949818994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>57.241337778377215</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>60.608475294752346</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6360,7 +6359,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6400,9 +6399,9 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>68.008840419137314</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>75.783317194896071</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6795,9 +6794,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>10.25534025071441</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>10.14902071453216</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>10.996010730239822</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7203,7 +7202,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7229,7 +7228,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
